--- a/data/sfas/sfas21.xlsx
+++ b/data/sfas/sfas21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaime/Desktop/sfas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE6B907-70F2-E94A-B581-A4176B271493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36109182-7B5D-0645-AD4E-ADE4547D4BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16297" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16305" uniqueCount="226">
   <si>
     <t>CODE</t>
   </si>
@@ -1427,7 +1427,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="24" fillId="28" borderId="9" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1587,9 +1587,6 @@
     </xf>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="27" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="25" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2046,7 +2043,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG1" sqref="AG1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D1335" sqref="D1335:D1442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -85879,7 +85876,9 @@
       <c r="C1335" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D1335" s="14"/>
+      <c r="D1335" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E1335" s="11" t="s">
         <v>9</v>
       </c>
@@ -86422,7 +86421,9 @@
       <c r="C1344" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D1344" s="14"/>
+      <c r="D1344" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E1344" s="11" t="s">
         <v>9</v>
       </c>
@@ -86532,7 +86533,9 @@
       <c r="C1346" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D1346" s="14"/>
+      <c r="D1346" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E1346" s="11" t="s">
         <v>9</v>
       </c>
@@ -87461,7 +87464,9 @@
       <c r="C1361" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D1361" s="14"/>
+      <c r="D1361" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E1361" s="42" t="s">
         <v>9</v>
       </c>
@@ -88768,7 +88773,9 @@
       <c r="C1382" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D1382" s="14"/>
+      <c r="D1382" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E1382" s="11" t="s">
         <v>9</v>
       </c>
@@ -90085,7 +90092,9 @@
       <c r="C1403" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D1403" s="14"/>
+      <c r="D1403" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E1403" s="11" t="s">
         <v>9</v>
       </c>
@@ -92355,7 +92364,9 @@
       <c r="C1439" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D1439" s="53"/>
+      <c r="D1439" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E1439" s="15" t="s">
         <v>9</v>
       </c>
@@ -92369,9 +92380,9 @@
       <c r="K1439" s="29"/>
       <c r="L1439" s="29"/>
       <c r="M1439" s="29"/>
-      <c r="N1439" s="54"/>
-      <c r="O1439" s="55"/>
-      <c r="P1439" s="56"/>
+      <c r="N1439" s="53"/>
+      <c r="O1439" s="54"/>
+      <c r="P1439" s="55"/>
       <c r="Q1439" s="15"/>
       <c r="R1439" s="15"/>
       <c r="S1439" s="22" t="s">
@@ -92522,7 +92533,9 @@
       <c r="C1442" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D1442" s="14"/>
+      <c r="D1442" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="E1442" s="42" t="s">
         <v>9</v>
       </c>
@@ -93146,6 +93159,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Modified0 xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
@@ -93156,15 +93178,6 @@
     <TaxCatchAll xmlns="c93905bf-b08c-430b-8630-76f4d352397a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93400,20 +93413,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3651137D-3570-4403-961C-9309BA198A36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BF1DC30-850A-4A93-B5FC-3F9C6A05D4D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4233fc49-3339-4531-8895-cee7bd229291"/>
     <ds:schemaRef ds:uri="c93905bf-b08c-430b-8630-76f4d352397a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3651137D-3570-4403-961C-9309BA198A36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
